--- a/src/main/resources/data/special/SpecialEventCondition_test.xlsx
+++ b/src/main/resources/data/special/SpecialEventCondition_test.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B205F-B7CE-4E6C-83D7-154DFDD91D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC3A0B6-9288-4C76-82EA-1FF2AAAE696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -55,7 +66,11 @@
     <t>&gt;=</t>
   </si>
   <si>
-    <t>priority</t>
+    <t>air</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,19 +199,15 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -214,9 +225,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -566,7 +578,7 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" thickBot="1">
+    <row r="1" spans="1:5" ht="33.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,11 +594,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -602,11 +611,8 @@
       <c r="E2">
         <v>38</v>
       </c>
-      <c r="F2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -622,11 +628,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -642,11 +645,8 @@
       <c r="E4">
         <v>42</v>
       </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -662,11 +662,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -682,11 +679,8 @@
       <c r="E6">
         <v>39</v>
       </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -702,11 +696,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -722,11 +713,8 @@
       <c r="E8">
         <v>45</v>
       </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -742,11 +730,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -762,11 +747,8 @@
       <c r="E10">
         <v>37</v>
       </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -782,11 +764,8 @@
       <c r="E11">
         <v>60</v>
       </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
       <c r="A12" s="4">
         <v>15</v>
       </c>
@@ -802,11 +781,8 @@
       <c r="E12">
         <v>41</v>
       </c>
-      <c r="F12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
       <c r="A13" s="4">
         <v>16</v>
       </c>
@@ -822,11 +798,8 @@
       <c r="E13">
         <v>55</v>
       </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
       <c r="A14" s="4">
         <v>17</v>
       </c>
@@ -842,11 +815,8 @@
       <c r="E14">
         <v>75</v>
       </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1">
       <c r="A15" s="4">
         <v>18</v>
       </c>
@@ -862,11 +832,8 @@
       <c r="E15">
         <v>60</v>
       </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
       <c r="A16" s="4">
         <v>21</v>
       </c>
@@ -882,11 +849,8 @@
       <c r="E16">
         <v>43</v>
       </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
       <c r="A17" s="4">
         <v>22</v>
       </c>
@@ -902,11 +866,8 @@
       <c r="E17">
         <v>60</v>
       </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1">
       <c r="A18" s="4">
         <v>23</v>
       </c>
@@ -922,11 +883,8 @@
       <c r="E18">
         <v>38</v>
       </c>
-      <c r="F18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
       <c r="A19" s="4">
         <v>24</v>
       </c>
@@ -942,11 +900,8 @@
       <c r="E19">
         <v>60</v>
       </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="A20" s="4">
         <v>27</v>
       </c>
@@ -962,11 +917,8 @@
       <c r="E20">
         <v>40</v>
       </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1">
       <c r="A21" s="4">
         <v>28</v>
       </c>
@@ -982,11 +934,8 @@
       <c r="E21">
         <v>40</v>
       </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="22" spans="1:5" ht="17.25" thickBot="1">
       <c r="A22" s="6">
         <v>29</v>
       </c>
@@ -1002,11 +951,8 @@
       <c r="E22" s="6">
         <v>14</v>
       </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="23" spans="1:5" ht="17.25" thickBot="1">
       <c r="A23" s="6">
         <v>30</v>
       </c>
@@ -1022,11 +968,8 @@
       <c r="E23" s="6">
         <v>85</v>
       </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="A24" s="6">
         <v>31</v>
       </c>
@@ -1042,11 +985,8 @@
       <c r="E24" s="6">
         <v>14</v>
       </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1">
       <c r="A25" s="6">
         <v>32</v>
       </c>
@@ -1062,11 +1002,8 @@
       <c r="E25" s="6">
         <v>85</v>
       </c>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1">
       <c r="A26" s="6">
         <v>33</v>
       </c>
@@ -1082,11 +1019,8 @@
       <c r="E26" s="6">
         <v>14</v>
       </c>
-      <c r="F26" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1">
       <c r="A27" s="6">
         <v>34</v>
       </c>
@@ -1102,11 +1036,8 @@
       <c r="E27" s="6">
         <v>85</v>
       </c>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
       <c r="A28" s="6">
         <v>35</v>
       </c>
@@ -1122,11 +1053,8 @@
       <c r="E28" s="6">
         <v>14</v>
       </c>
-      <c r="F28" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1">
       <c r="A29" s="6">
         <v>36</v>
       </c>
@@ -1142,8 +1070,22 @@
       <c r="E29" s="6">
         <v>85</v>
       </c>
-      <c r="F29" s="6">
-        <v>10</v>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/special/SpecialEventCondition_test.xlsx
+++ b/src/main/resources/data/special/SpecialEventCondition_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC3A0B6-9288-4C76-82EA-1FF2AAAE696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA5191-5DE6-452C-A655-745C195A5648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -203,11 +209,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -229,6 +250,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -570,7 +597,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -599,7 +626,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -736,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
@@ -753,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -770,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -787,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
@@ -804,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
@@ -821,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -838,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
@@ -855,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -872,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
@@ -889,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
@@ -906,7 +933,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -923,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
@@ -939,8 +966,8 @@
       <c r="A22" s="6">
         <v>29</v>
       </c>
-      <c r="B22" s="4">
-        <v>15</v>
+      <c r="B22" s="10">
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>7</v>
@@ -956,8 +983,8 @@
       <c r="A23" s="6">
         <v>30</v>
       </c>
-      <c r="B23" s="4">
-        <v>16</v>
+      <c r="B23" s="10">
+        <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
@@ -973,8 +1000,8 @@
       <c r="A24" s="6">
         <v>31</v>
       </c>
-      <c r="B24" s="4">
-        <v>17</v>
+      <c r="B24" s="10">
+        <v>13</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>5</v>
@@ -990,8 +1017,8 @@
       <c r="A25" s="6">
         <v>32</v>
       </c>
-      <c r="B25" s="4">
-        <v>18</v>
+      <c r="B25" s="10">
+        <v>14</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>5</v>
@@ -1007,8 +1034,8 @@
       <c r="A26" s="6">
         <v>33</v>
       </c>
-      <c r="B26" s="4">
-        <v>19</v>
+      <c r="B26" s="10">
+        <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
@@ -1024,8 +1051,8 @@
       <c r="A27" s="6">
         <v>34</v>
       </c>
-      <c r="B27" s="4">
-        <v>20</v>
+      <c r="B27" s="10">
+        <v>16</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
@@ -1041,8 +1068,8 @@
       <c r="A28" s="6">
         <v>35</v>
       </c>
-      <c r="B28" s="4">
-        <v>21</v>
+      <c r="B28" s="10">
+        <v>17</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>8</v>
@@ -1058,8 +1085,8 @@
       <c r="A29" s="6">
         <v>36</v>
       </c>
-      <c r="B29" s="4">
-        <v>22</v>
+      <c r="B29" s="10">
+        <v>18</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>

--- a/src/main/resources/data/special/SpecialEventCondition_test.xlsx
+++ b/src/main/resources/data/special/SpecialEventCondition_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B205F-B7CE-4E6C-83D7-154DFDD91D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3AEFB-504D-470E-9640-18765FF0EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -57,13 +57,19 @@
   <si>
     <t>priority</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥</t>
+  </si>
+  <si>
+    <t>≤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +104,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -196,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -213,9 +225,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +578,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F29"/>
+      <selection activeCell="A2" sqref="A2:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -587,22 +607,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="6">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6">
         <v>4</v>
       </c>
     </row>
@@ -619,7 +639,7 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="4">
@@ -639,8 +659,8 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>42</v>
+      <c r="E4" s="4">
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <v>5</v>
@@ -659,7 +679,7 @@
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -679,11 +699,11 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>39</v>
       </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" thickBot="1">
@@ -699,11 +719,11 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
@@ -719,8 +739,8 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>45</v>
+      <c r="E8" s="4">
+        <v>48</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -739,7 +759,7 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4">
@@ -751,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>6</v>
@@ -759,8 +779,8 @@
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>37</v>
+      <c r="E10" s="4">
+        <v>41</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
@@ -771,7 +791,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -779,8 +799,8 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>60</v>
+      <c r="E11" s="4">
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <v>4</v>
@@ -791,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -799,11 +819,11 @@
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>41</v>
+      <c r="E12" s="4">
+        <v>31</v>
       </c>
       <c r="F12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
@@ -811,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
@@ -819,11 +839,11 @@
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>55</v>
+      <c r="E13" s="4">
+        <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
@@ -831,7 +851,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
@@ -839,8 +859,8 @@
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14">
-        <v>75</v>
+      <c r="E14" s="4">
+        <v>36</v>
       </c>
       <c r="F14" s="4">
         <v>5</v>
@@ -851,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -859,8 +879,8 @@
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>60</v>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
@@ -871,16 +891,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>62</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -891,16 +911,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -911,16 +931,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>78</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
@@ -931,16 +951,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>3</v>
@@ -951,16 +971,16 @@
         <v>27</v>
       </c>
       <c r="B20" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>65</v>
       </c>
       <c r="F20" s="4">
         <v>3</v>
@@ -971,178 +991,178 @@
         <v>28</v>
       </c>
       <c r="B21" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>29</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="8">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8">
+        <v>14</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A23" s="8">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8">
+        <v>85</v>
+      </c>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A24" s="8">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A25" s="8">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8">
+        <v>85</v>
+      </c>
+      <c r="F25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A26" s="8">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8">
         <v>15</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="C26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8">
         <v>14</v>
       </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A23" s="6">
-        <v>30</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A27" s="8">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8">
+        <v>93</v>
+      </c>
+      <c r="F27" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A28" s="8">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8">
+        <v>14</v>
+      </c>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A29" s="8">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8">
         <v>85</v>
       </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A24" s="6">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A25" s="6">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6">
-        <v>85</v>
-      </c>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A26" s="6">
-        <v>33</v>
-      </c>
-      <c r="B26" s="4">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A27" s="6">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6">
-        <v>85</v>
-      </c>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A28" s="6">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4">
-        <v>21</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A29" s="6">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4">
-        <v>22</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6">
-        <v>85</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="F29" s="8">
         <v>10</v>
       </c>
     </row>

--- a/src/main/resources/data/special/SpecialEventCondition_test.xlsx
+++ b/src/main/resources/data/special/SpecialEventCondition_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA5191-5DE6-452C-A655-745C195A5648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894FCE93-F281-41D4-980D-8DA44E0C6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,12 @@
   <si>
     <t>==</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥</t>
+  </si>
+  <si>
+    <t>≤</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -245,7 +251,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -255,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +608,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -623,20 +634,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>38</v>
+      <c r="E2" s="8">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1">
@@ -652,7 +663,7 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -669,8 +680,8 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>42</v>
+      <c r="E4" s="4">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1">
@@ -686,7 +697,7 @@
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -703,7 +714,7 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>39</v>
       </c>
     </row>
@@ -720,7 +731,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -737,8 +748,8 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>45</v>
+      <c r="E8" s="4">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1">
@@ -754,7 +765,7 @@
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -771,8 +782,8 @@
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>37</v>
+      <c r="E10" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" thickBot="1">
@@ -788,8 +799,8 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>60</v>
+      <c r="E11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1">
@@ -805,8 +816,8 @@
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
-        <v>41</v>
+      <c r="E12" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1">
@@ -822,8 +833,8 @@
       <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>55</v>
+      <c r="E13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1">
@@ -839,8 +850,8 @@
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14">
-        <v>75</v>
+      <c r="E14" s="4">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1">
@@ -856,8 +867,8 @@
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>60</v>
+      <c r="E15" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1">
@@ -871,10 +882,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="4">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1">
@@ -888,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1">
@@ -905,10 +916,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1">
@@ -922,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1">
@@ -939,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1">
@@ -956,145 +967,145 @@
         <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A22" s="6">
+      <c r="A22" s="9">
         <v>29</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>11</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E22" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A23" s="6">
+      <c r="A23" s="9">
         <v>30</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>12</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="9">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A24" s="6">
+      <c r="A24" s="9">
         <v>31</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E24" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A25" s="6">
+      <c r="A25" s="9">
         <v>32</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A26" s="6">
+      <c r="A26" s="9">
         <v>33</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>15</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E26" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A27" s="6">
+      <c r="A27" s="9">
         <v>34</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>16</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6">
-        <v>85</v>
+      <c r="D27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A28" s="6">
+      <c r="A28" s="9">
         <v>35</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>17</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="E28" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A29" s="6">
+      <c r="A29" s="9">
         <v>36</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>18</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9">
         <v>85</v>
       </c>
     </row>
@@ -1102,13 +1113,13 @@
       <c r="A30">
         <v>37</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E30">

--- a/src/main/resources/data/special/SpecialEventCondition_test.xlsx
+++ b/src/main/resources/data/special/SpecialEventCondition_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\special\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\gitProject\blueplanet\backend\src\main\resources\data\special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894FCE93-F281-41D4-980D-8DA44E0C6C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F622C-D686-4F92-844D-9DC73C66FEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -74,10 +63,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>≥</t>
-  </si>
-  <si>
-    <t>≤</t>
+    <t>&gt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -251,7 +238,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -285,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,9 +312,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,26 +347,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,26 +382,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +561,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -865,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -899,7 +852,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -933,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -983,8 +936,8 @@
       <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>14</v>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="9">
         <v>14</v>
@@ -1000,7 +953,7 @@
       <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="9">
@@ -1017,8 +970,8 @@
       <c r="C24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>14</v>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E24" s="9">
         <v>14</v>
@@ -1034,7 +987,7 @@
       <c r="C25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="9">
@@ -1051,8 +1004,8 @@
       <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>14</v>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E26" s="9">
         <v>14</v>
@@ -1068,7 +1021,7 @@
       <c r="C27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="9">
@@ -1085,8 +1038,8 @@
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>14</v>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E28" s="9">
         <v>14</v>
@@ -1102,7 +1055,7 @@
       <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="9">
